--- a/wzrv/expdata/2009.xlsx
+++ b/wzrv/expdata/2009.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58461E53-4C51-2A49-A759-A64AB33F26CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
+    <workbookView xWindow="33480" yWindow="3560" windowWidth="28800" windowHeight="12300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -53,9 +63,6 @@
     <t>syst2</t>
   </si>
   <si>
-    <t>syst3</t>
-  </si>
-  <si>
     <t>stat_u</t>
   </si>
   <si>
@@ -65,9 +72,6 @@
     <t>syst2_c</t>
   </si>
   <si>
-    <t>syst3_c</t>
-  </si>
-  <si>
     <t>obs</t>
   </si>
   <si>
@@ -96,12 +100,18 @@
   </si>
   <si>
     <t>target</t>
+  </si>
+  <si>
+    <t>norm_c</t>
+  </si>
+  <si>
+    <t>norm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -415,24 +425,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="10.875" style="1" customWidth="1"/>
-    <col min="12" max="14" width="10.375" style="1"/>
-    <col min="15" max="16" width="10.875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.375" style="1"/>
-    <col min="18" max="18" width="15.25" style="1" customWidth="1"/>
+    <col min="1" max="11" width="10.83203125" style="1" customWidth="1"/>
+    <col min="12" max="14" width="10.33203125" style="1"/>
+    <col min="15" max="16" width="10.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" style="1"/>
+    <col min="18" max="18" width="15.1640625" style="1" customWidth="1"/>
     <col min="1019" max="1024" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,34 +471,34 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>7000</v>
       </c>
@@ -502,7 +512,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1">
         <v>602</v>
@@ -536,19 +546,19 @@
         <v>20.468</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>7000</v>
       </c>
@@ -562,7 +572,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1">
         <v>602.66999999999996</v>
@@ -596,19 +606,19 @@
         <v>20.490780000000001</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>7000</v>
       </c>
@@ -622,7 +632,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1">
         <v>620.15</v>
@@ -656,19 +666,19 @@
         <v>21.085100000000001</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>7000</v>
       </c>
@@ -682,7 +692,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1">
         <v>614.69000000000005</v>
@@ -716,19 +726,19 @@
         <v>20.899460000000005</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>7000</v>
       </c>
@@ -742,7 +752,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1">
         <v>640.65</v>
@@ -776,19 +786,19 @@
         <v>21.7821</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>7000</v>
       </c>
@@ -802,7 +812,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1">
         <v>647.21</v>
@@ -836,19 +846,19 @@
         <v>22.005140000000004</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7000</v>
       </c>
@@ -862,7 +872,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1">
         <v>630.74</v>
@@ -896,19 +906,19 @@
         <v>21.445160000000001</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7000</v>
       </c>
@@ -922,7 +932,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1">
         <v>629.16999999999996</v>
@@ -956,19 +966,19 @@
         <v>21.391780000000001</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7000</v>
       </c>
@@ -982,7 +992,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1">
         <v>648.85</v>
@@ -1016,19 +1026,19 @@
         <v>22.060900000000004</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>7000</v>
       </c>
@@ -1042,7 +1052,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1">
         <v>628.13</v>
@@ -1076,19 +1086,19 @@
         <v>21.35642</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7000</v>
       </c>
@@ -1102,7 +1112,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F12" s="1">
         <v>578.39</v>
@@ -1136,19 +1146,19 @@
         <v>19.66526</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>7000</v>
       </c>
@@ -1162,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F13" s="1">
         <v>446.32</v>
@@ -1196,19 +1206,19 @@
         <v>15.174880000000002</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>7000</v>
       </c>
@@ -1222,7 +1232,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F14" s="1">
         <v>440.26</v>
@@ -1256,19 +1266,19 @@
         <v>14.96884</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>7000</v>
       </c>
@@ -1282,7 +1292,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F15" s="1">
         <v>455.06</v>
@@ -1316,19 +1326,19 @@
         <v>15.472040000000002</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>7000</v>
       </c>
@@ -1342,7 +1352,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F16" s="1">
         <v>439.81</v>
@@ -1376,19 +1386,19 @@
         <v>14.95354</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>7000</v>
       </c>
@@ -1402,7 +1412,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F17" s="1">
         <v>428.07</v>
@@ -1436,19 +1446,19 @@
         <v>14.55438</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>7000</v>
       </c>
@@ -1462,7 +1472,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F18" s="1">
         <v>418.89</v>
@@ -1496,19 +1506,19 @@
         <v>14.24226</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>7000</v>
       </c>
@@ -1522,7 +1532,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F19" s="1">
         <v>387.27</v>
@@ -1556,19 +1566,19 @@
         <v>13.16718</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>7000</v>
       </c>
@@ -1582,7 +1592,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F20" s="1">
         <v>384.03</v>
@@ -1616,19 +1626,19 @@
         <v>13.05702</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>7000</v>
       </c>
@@ -1642,7 +1652,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F21" s="1">
         <v>375.29</v>
@@ -1676,19 +1686,19 @@
         <v>12.759860000000002</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>7000</v>
       </c>
@@ -1702,7 +1712,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F22" s="1">
         <v>357.39</v>
@@ -1736,19 +1746,19 @@
         <v>12.151260000000001</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>7000</v>
       </c>
@@ -1762,7 +1772,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F23" s="1">
         <v>330.99</v>
@@ -1796,16 +1806,16 @@
         <v>11.253660000000002</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/wzrv/expdata/2009.xlsx
+++ b/wzrv/expdata/2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58461E53-4C51-2A49-A759-A64AB33F26CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAF0645-C728-4A48-8CB4-0E01ACCD0BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33480" yWindow="3560" windowWidth="28800" windowHeight="12300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/wzrv/expdata/2009.xlsx
+++ b/wzrv/expdata/2009.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C054D88F-D81E-9E40-8826-BFB5AACABC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259BCC35-D4DD-214B-9654-0767BA955106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="19">
   <si>
     <t>cms</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>pt_max</t>
   </si>
 </sst>
 </file>
@@ -408,23 +411,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="10.83203125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="10.33203125" style="1"/>
-    <col min="10" max="11" width="10.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="1"/>
-    <col min="13" max="13" width="15.1640625" style="1" customWidth="1"/>
-    <col min="1014" max="1019" width="10.5" customWidth="1"/>
+    <col min="1" max="8" width="10.83203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="10.33203125" style="1"/>
+    <col min="11" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1"/>
+    <col min="14" max="14" width="15.1640625" style="1" customWidth="1"/>
+    <col min="1015" max="1020" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,34 +441,37 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>7000</v>
       </c>
@@ -478,35 +484,38 @@
       <c r="D2" s="1">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="1">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1">
         <v>0.14899999999999999</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>7000</v>
       </c>
@@ -519,35 +528,38 @@
       <c r="D3" s="1">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="1">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1">
         <v>0.156</v>
       </c>
-      <c r="G3" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
       <c r="H3" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I3" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>7000</v>
       </c>
@@ -560,35 +572,38 @@
       <c r="D4" s="1">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="1">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1">
         <v>0.154</v>
       </c>
-      <c r="G4" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
       <c r="H4" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I4" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J4" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>7000</v>
       </c>
@@ -601,35 +616,38 @@
       <c r="D5" s="1">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="1">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1">
         <v>0.16600000000000001</v>
       </c>
-      <c r="G5" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
       <c r="H5" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I5" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>7000</v>
       </c>
@@ -642,35 +660,38 @@
       <c r="D6" s="1">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1">
         <v>0.19900000000000001</v>
       </c>
-      <c r="G6" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
       <c r="H6" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I6" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>7000</v>
       </c>
@@ -683,35 +704,38 @@
       <c r="D7" s="1">
         <v>20</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1">
         <v>0.214</v>
-      </c>
-      <c r="G7" s="1">
-        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H7" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I7" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J7" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7000</v>
       </c>
@@ -724,35 +748,38 @@
       <c r="D8" s="1">
         <v>20</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E8" s="1">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1">
         <v>0.23899999999999999</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>0.01</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7000</v>
       </c>
@@ -765,35 +792,38 @@
       <c r="D9" s="1">
         <v>20</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E9" s="1">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1">
         <v>0.24199999999999999</v>
       </c>
-      <c r="G9" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
       <c r="H9" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I9" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7000</v>
       </c>
@@ -806,35 +836,38 @@
       <c r="D10" s="1">
         <v>20</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1">
         <v>0.26700000000000002</v>
       </c>
-      <c r="G10" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
       <c r="H10" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I10" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J10" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>7000</v>
       </c>
@@ -847,35 +880,38 @@
       <c r="D11" s="1">
         <v>20</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E11" s="1">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1">
         <v>0.27500000000000002</v>
       </c>
-      <c r="G11" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
       <c r="H11" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I11" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J11" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7000</v>
       </c>
@@ -888,31 +924,34 @@
       <c r="D12" s="1">
         <v>20</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E12" s="1">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1">
         <v>0.27200000000000002</v>
       </c>
-      <c r="G12" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
       <c r="H12" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I12" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/wzrv/expdata/2009.xlsx
+++ b/wzrv/expdata/2009.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259BCC35-D4DD-214B-9654-0767BA955106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF1B508-8D81-6040-96AE-7A63C63EBA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,7 +485,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
@@ -529,7 +529,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>17</v>
@@ -573,7 +573,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
@@ -617,7 +617,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>17</v>
@@ -661,7 +661,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>17</v>
@@ -705,7 +705,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>17</v>
@@ -749,7 +749,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>17</v>
@@ -793,7 +793,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
@@ -837,7 +837,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>17</v>
@@ -881,7 +881,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>17</v>
@@ -925,7 +925,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>17</v>

--- a/wzrv/expdata/2009.xlsx
+++ b/wzrv/expdata/2009.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF1B508-8D81-6040-96AE-7A63C63EBA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59850C8B-6575-CE42-92F2-2F5EF80DCFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="18">
   <si>
     <t>cms</t>
   </si>
@@ -88,22 +88,26 @@
   </si>
   <si>
     <t>W</t>
-  </si>
-  <si>
-    <t>pt_max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,9 +130,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -411,548 +418,512 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="10.83203125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="10.33203125" style="1"/>
-    <col min="11" max="12" width="10.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1"/>
-    <col min="14" max="14" width="15.1640625" style="1" customWidth="1"/>
-    <col min="1015" max="1020" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1"/>
+    <col min="3" max="9" width="10.83203125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.33203125" style="1"/>
+    <col min="12" max="13" width="10.83203125" style="1" customWidth="1"/>
+    <col min="1014" max="1019" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B2" s="1">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E2" s="1">
         <v>0.21</v>
       </c>
-      <c r="D2" s="1">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1">
-        <v>70</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F2" s="1">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1">
         <v>0.14899999999999999</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B3" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D3" s="1">
         <v>0.21</v>
       </c>
-      <c r="C3" s="1">
+      <c r="E3" s="1">
         <v>0.42</v>
       </c>
-      <c r="D3" s="1">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1">
-        <v>70</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F3" s="1">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1">
         <v>0.156</v>
       </c>
-      <c r="H3" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
       <c r="I3" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J3" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B4" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D4" s="1">
         <v>0.42</v>
       </c>
-      <c r="C4" s="1">
+      <c r="E4" s="1">
         <v>0.63</v>
       </c>
-      <c r="D4" s="1">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1">
-        <v>70</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4" s="1">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1">
         <v>0.154</v>
       </c>
-      <c r="H4" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
       <c r="I4" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="J4" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K4" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B5" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.63</v>
       </c>
-      <c r="C5" s="1">
+      <c r="E5" s="1">
         <v>0.84</v>
       </c>
-      <c r="D5" s="1">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1">
-        <v>70</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="F5" s="1">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1">
         <v>0.16600000000000001</v>
       </c>
-      <c r="H5" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
       <c r="I5" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J5" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B6" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.84</v>
       </c>
-      <c r="C6" s="1">
+      <c r="E6" s="1">
         <v>1.05</v>
       </c>
-      <c r="D6" s="1">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1">
-        <v>70</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F6" s="1">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1">
         <v>0.19900000000000001</v>
       </c>
-      <c r="H6" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
       <c r="I6" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J6" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B7" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D7" s="1">
         <v>1.05</v>
       </c>
-      <c r="C7" s="1">
+      <c r="E7" s="1">
         <v>1.37</v>
       </c>
-      <c r="D7" s="1">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1">
-        <v>70</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F7" s="1">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1">
         <v>0.214</v>
-      </c>
-      <c r="H7" s="1">
-        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I7" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="J7" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K7" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B8" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D8" s="1">
         <v>1.37</v>
       </c>
-      <c r="C8" s="1">
+      <c r="E8" s="1">
         <v>1.52</v>
       </c>
-      <c r="D8" s="1">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1">
-        <v>70</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="F8" s="1">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1">
         <v>0.23899999999999999</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>0.01</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B9" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D9" s="1">
         <v>1.52</v>
       </c>
-      <c r="C9" s="1">
+      <c r="E9" s="1">
         <v>1.74</v>
       </c>
-      <c r="D9" s="1">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1">
-        <v>70</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="F9" s="1">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1">
         <v>0.24199999999999999</v>
       </c>
-      <c r="H9" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
       <c r="I9" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J9" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B10" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D10" s="1">
         <v>1.74</v>
       </c>
-      <c r="C10" s="1">
+      <c r="E10" s="1">
         <v>1.95</v>
       </c>
-      <c r="D10" s="1">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1">
-        <v>70</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="F10" s="1">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1">
         <v>0.26700000000000002</v>
       </c>
-      <c r="H10" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
       <c r="I10" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="J10" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K10" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B11" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D11" s="1">
         <v>1.95</v>
       </c>
-      <c r="C11" s="1">
+      <c r="E11" s="1">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D11" s="1">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1">
-        <v>70</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="F11" s="1">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1">
         <v>0.27500000000000002</v>
       </c>
-      <c r="H11" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
       <c r="I11" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="J11" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K11" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B12" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D12" s="1">
         <v>2.1800000000000002</v>
       </c>
-      <c r="C12" s="1">
+      <c r="E12" s="1">
         <v>2.5</v>
       </c>
-      <c r="D12" s="1">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1">
-        <v>70</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="F12" s="1">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1">
         <v>0.27200000000000002</v>
       </c>
-      <c r="H12" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
       <c r="I12" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J12" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
